--- a/changeCellsLink/result-202104/合并报表202104.xlsx
+++ b/changeCellsLink/result-202104/合并报表202104.xlsx
@@ -8,9 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2、test2" sheetId="2" r:id="rId2"/>
+    <sheet name="3、test3" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,18 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t xml:space="preserve"> 资产负债表</t>
   </si>
   <si>
-    <t>成都万达文创</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    投资性物业</t>
-  </si>
-  <si>
     <t xml:space="preserve">    长期金融资产</t>
   </si>
   <si>
@@ -56,12 +51,6 @@
   </si>
   <si>
     <t xml:space="preserve">    预付土地款</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    开发中物业</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    持作销售的完工物业</t>
   </si>
   <si>
     <t xml:space="preserve">    应收及其他应收款</t>
@@ -140,6 +129,186 @@
   </si>
   <si>
     <t>公司----</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>万达北京</t>
+  </si>
+  <si>
+    <t>万达天津</t>
+  </si>
+  <si>
+    <t>万达上海</t>
+  </si>
+  <si>
+    <t>万达南京</t>
+  </si>
+  <si>
+    <t>万达深圳</t>
+  </si>
+  <si>
+    <t>万达广州</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    股本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    储备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    留存收益</t>
+  </si>
+  <si>
+    <t>母公司所有者权益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    少数股东权益</t>
+  </si>
+  <si>
+    <t>权益合计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    长期借款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    递延所得税负债</t>
+  </si>
+  <si>
+    <t>非流动负债合计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其他负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应付及其他应付款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    预收账款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应付内部往来</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应付关联方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    短期借款</t>
+  </si>
+  <si>
+    <t>流动负债合计</t>
+  </si>
+  <si>
+    <t>负债合计</t>
+  </si>
+  <si>
+    <t>权益及负债合计</t>
+  </si>
+  <si>
+    <t>检查</t>
+  </si>
+  <si>
+    <t>利润表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    销售收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    减：销售税金及附加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          销售成本</t>
+  </si>
+  <si>
+    <t>毛利</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    减：销售费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          管理费用</t>
+  </si>
+  <si>
+    <t>经营利润</t>
+  </si>
+  <si>
+    <t>税前利润</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    减：土地增值税</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    减：企业所得税</t>
+  </si>
+  <si>
+    <t>净利润</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：母公司净利</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    加：期初未分配利润</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    减：提取法定盈余公积</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    减：分配利润</t>
+  </si>
+  <si>
+    <t>期末未分配利润</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    投资性资产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    开发中资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    持作销售的完工资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应交税金（核算企业所得税及土地增值税）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    加：投资性物业公允值变化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          减值准备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          其他收入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          其他费用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    减：财务费用（仅核算利息支出）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             少数股东收益</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    加：新收入准则期初影响</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>check RE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>长投检查</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -147,10 +316,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0,;\(#,##0,\);\-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,8 +373,22 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +407,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -291,11 +482,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -331,9 +555,42 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -397,9 +654,462 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2"/>
+          <cell r="B2"/>
+          <cell r="C2" t="str">
+            <v>收购项目xxx</v>
+          </cell>
+          <cell r="D2"/>
+          <cell r="E2"/>
+          <cell r="F2"/>
+          <cell r="G2"/>
+        </row>
+        <row r="3">
+          <cell r="A3"/>
+          <cell r="B3"/>
+          <cell r="C3" t="str">
+            <v>上一年审定数</v>
+          </cell>
+          <cell r="D3"/>
+          <cell r="E3" t="str">
+            <v>本年账面数</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>调整合计</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>本年调整后</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4"/>
+          <cell r="B4" t="str">
+            <v xml:space="preserve"> 资产负债表</v>
+          </cell>
+          <cell r="C4"/>
+          <cell r="D4"/>
+          <cell r="E4"/>
+          <cell r="F4"/>
+          <cell r="G4"/>
+        </row>
+        <row r="5">
+          <cell r="A5"/>
+          <cell r="B5"/>
+          <cell r="C5"/>
+          <cell r="D5"/>
+          <cell r="E5"/>
+          <cell r="F5"/>
+          <cell r="G5"/>
+        </row>
         <row r="6">
+          <cell r="A6"/>
+          <cell r="B6" t="str">
+            <v xml:space="preserve">    固定资产</v>
+          </cell>
+          <cell r="C6">
+            <v>50000000</v>
+          </cell>
+          <cell r="D6"/>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
           <cell r="G6">
             <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7"/>
+          <cell r="B7" t="str">
+            <v xml:space="preserve">    投资性物业</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7"/>
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+          <cell r="F7">
+            <v>0</v>
+          </cell>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8"/>
+          <cell r="B8" t="str">
+            <v xml:space="preserve">    长期金融资产</v>
+          </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+          <cell r="D8"/>
+          <cell r="E8">
+            <v>600000</v>
+          </cell>
+          <cell r="F8">
+            <v>0</v>
+          </cell>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9"/>
+          <cell r="B9" t="str">
+            <v xml:space="preserve">    长期股权投资</v>
+          </cell>
+          <cell r="C9">
+            <v>1000000</v>
+          </cell>
+          <cell r="D9"/>
+          <cell r="E9">
+            <v>0</v>
+          </cell>
+          <cell r="F9">
+            <v>0</v>
+          </cell>
+          <cell r="G9">
+            <v>1000000</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10"/>
+          <cell r="B10" t="str">
+            <v xml:space="preserve">    商誉</v>
+          </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
+          <cell r="D10"/>
+          <cell r="E10">
+            <v>0</v>
+          </cell>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11"/>
+          <cell r="B11" t="str">
+            <v xml:space="preserve">    其他无形资产</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+          <cell r="D11"/>
+          <cell r="E11">
+            <v>0</v>
+          </cell>
+          <cell r="F11">
+            <v>0</v>
+          </cell>
+          <cell r="G11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12"/>
+          <cell r="B12" t="str">
+            <v xml:space="preserve">    递延所得税资产</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+          <cell r="D12"/>
+          <cell r="E12">
+            <v>0</v>
+          </cell>
+          <cell r="F12">
+            <v>0</v>
+          </cell>
+          <cell r="G12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13"/>
+          <cell r="B13" t="str">
+            <v xml:space="preserve">    其他长期资产</v>
+          </cell>
+          <cell r="C13">
+            <v>0</v>
+          </cell>
+          <cell r="D13"/>
+          <cell r="E13">
+            <v>0</v>
+          </cell>
+          <cell r="F13">
+            <v>0</v>
+          </cell>
+          <cell r="G13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14"/>
+          <cell r="B14" t="str">
+            <v>非流动资产合计</v>
+          </cell>
+          <cell r="C14">
+            <v>8000000</v>
+          </cell>
+          <cell r="D14"/>
+          <cell r="E14">
+            <v>8000000</v>
+          </cell>
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+          <cell r="G14">
+            <v>8000000</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15"/>
+          <cell r="B15"/>
+          <cell r="C15"/>
+          <cell r="D15"/>
+          <cell r="E15"/>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15"/>
+        </row>
+        <row r="16">
+          <cell r="A16"/>
+          <cell r="B16" t="str">
+            <v xml:space="preserve">    合约资产</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+          <cell r="D16"/>
+          <cell r="E16">
+            <v>0</v>
+          </cell>
+          <cell r="F16">
+            <v>0</v>
+          </cell>
+          <cell r="G16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17"/>
+          <cell r="B17" t="str">
+            <v xml:space="preserve">    开发中物业</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+          <cell r="D17"/>
+          <cell r="E17">
+            <v>0</v>
+          </cell>
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+          <cell r="G17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18"/>
+          <cell r="B18" t="str">
+            <v xml:space="preserve">    持作销售的完工物业</v>
+          </cell>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
+          <cell r="D18"/>
+          <cell r="E18">
+            <v>0</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+          <cell r="G18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19"/>
+          <cell r="B19" t="str">
+            <v xml:space="preserve">    应收及其他应收款</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+          <cell r="D19"/>
+          <cell r="E19">
+            <v>0</v>
+          </cell>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+          <cell r="G19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20"/>
+          <cell r="B20" t="str">
+            <v xml:space="preserve">    预付税金</v>
+          </cell>
+          <cell r="C20">
+            <v>0</v>
+          </cell>
+          <cell r="D20"/>
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+          <cell r="G20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21"/>
+          <cell r="B21" t="str">
+            <v xml:space="preserve">    应收内部往来</v>
+          </cell>
+          <cell r="C21">
+            <v>9000000</v>
+          </cell>
+          <cell r="D21"/>
+          <cell r="E21">
+            <v>9000000</v>
+          </cell>
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+          <cell r="G21">
+            <v>9000000</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22"/>
+          <cell r="B22" t="str">
+            <v xml:space="preserve">    应收关联方</v>
+          </cell>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+          <cell r="D22"/>
+          <cell r="E22">
+            <v>0</v>
+          </cell>
+          <cell r="F22">
+            <v>0</v>
+          </cell>
+          <cell r="G22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23"/>
+          <cell r="B23" t="str">
+            <v xml:space="preserve">    短期金融资产</v>
+          </cell>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+          <cell r="D23"/>
+          <cell r="E23">
+            <v>0</v>
+          </cell>
+          <cell r="F23">
+            <v>0</v>
+          </cell>
+          <cell r="G23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24"/>
+          <cell r="B24" t="str">
+            <v xml:space="preserve">    受限资金</v>
+          </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+          <cell r="D24"/>
+          <cell r="E24">
+            <v>0</v>
+          </cell>
+          <cell r="F24">
+            <v>0</v>
+          </cell>
+          <cell r="G24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25"/>
+          <cell r="B25" t="str">
+            <v xml:space="preserve">    现金及现金等价物</v>
+          </cell>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+          <cell r="D25"/>
+          <cell r="E25">
+            <v>0</v>
+          </cell>
+          <cell r="F25">
+            <v>0</v>
+          </cell>
+          <cell r="G25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26"/>
+          <cell r="B26" t="str">
+            <v>流动资产合计</v>
+          </cell>
+          <cell r="C26">
+            <v>96000000</v>
+          </cell>
+          <cell r="D26"/>
+          <cell r="E26">
+            <v>96000000</v>
+          </cell>
+          <cell r="F26">
+            <v>0</v>
+          </cell>
+          <cell r="G26">
+            <v>96000000</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27"/>
+          <cell r="B27" t="str">
+            <v>资产合计</v>
+          </cell>
+          <cell r="C27">
+            <v>100000000</v>
+          </cell>
+          <cell r="D27"/>
+          <cell r="E27">
+            <v>100000000</v>
+          </cell>
+          <cell r="F27">
+            <v>0</v>
+          </cell>
+          <cell r="G27">
+            <v>100000000</v>
           </cell>
         </row>
       </sheetData>
@@ -671,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -691,47 +1401,47 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -740,22 +1450,22 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -771,7 +1481,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" s="8">
         <f>[1]aaaa!$G6</f>
@@ -796,7 +1506,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
@@ -820,7 +1530,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
@@ -844,7 +1554,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="8">
         <v>1000000</v>
@@ -868,7 +1578,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="8">
         <v>0</v>
@@ -892,7 +1602,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="8">
         <v>0</v>
@@ -916,7 +1626,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="8">
         <v>0</v>
@@ -940,7 +1650,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="8">
         <v>0</v>
@@ -964,10 +1674,11 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="10">
-        <v>8000000</v>
+        <f>SUM(C5:C12)</f>
+        <v>1000000</v>
       </c>
       <c r="D13" s="10">
         <v>2000</v>
@@ -998,7 +1709,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
@@ -1022,7 +1733,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C16" s="8">
         <v>0</v>
@@ -1046,7 +1757,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C17" s="8">
         <v>0</v>
@@ -1070,7 +1781,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" s="8">
         <v>0</v>
@@ -1094,7 +1805,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C19" s="8">
         <v>0</v>
@@ -1118,7 +1829,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C20" s="8">
         <v>9000000</v>
@@ -1142,7 +1853,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C21" s="8">
         <v>0</v>
@@ -1166,7 +1877,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C22" s="8">
         <v>0</v>
@@ -1190,7 +1901,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
@@ -1214,7 +1925,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C24" s="8">
         <v>0</v>
@@ -1238,10 +1949,11 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="10">
-        <v>96000000</v>
+        <f>SUM(C15:C24)</f>
+        <v>9000000</v>
       </c>
       <c r="D25" s="10">
         <v>99000000</v>
@@ -1262,10 +1974,11 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C26" s="10">
-        <v>100000000</v>
+        <f>C13+C25</f>
+        <v>10000000</v>
       </c>
       <c r="D26" s="10">
         <v>99000000</v>
@@ -1281,6 +1994,469 @@
       </c>
       <c r="H26" s="10">
         <v>700000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C28:C30)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B32" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <f>C31+C32</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <f>SUM(C35:C36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="8">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B46" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="10">
+        <f>SUM(C39:C45)</f>
+        <v>4250000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="10">
+        <f>C37+C46</f>
+        <v>4250000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B48" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="10">
+        <f>C33+C47</f>
+        <v>4270000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B49" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="15">
+        <f>C26+C48</f>
+        <v>14270000</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B51" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B53" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B54" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B55" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B56" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <f>SUM(C53:C55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B58" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B59" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B60" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B61" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B62" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B63" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B64" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64">
+        <f>SUM(C56:C63)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B66" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B67" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67">
+        <f>SUM(C64:C66)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B68" s="7"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B69" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B70" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B71" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71">
+        <f>SUM(C67:C70)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B73" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73">
+        <f>C71-C74</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B74" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B75" s="11"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B76" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="8">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B77" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B78" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B79" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B80" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="10">
+        <f>SUM(C73,C76:C79)</f>
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B81" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" s="16">
+        <f>C80-C30</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="e">
+        <f>HLOOKUP(C2,[1]aaaa!$2:$86,79,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B84" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="17" t="e">
+        <f t="shared" ref="C84" si="0">C83-C76</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B86" s="13"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B88" s="1"/>
+      <c r="C88" s="18" t="e">
+        <f>HLOOKUP(C2,'3、test3'!$2:$52,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B89" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" s="14">
+        <f>IFERROR(HLOOKUP(C2,'2、test2'!$2:$96,91,FALSE),0)-C8</f>
+        <v>-1000000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B92" s="1"/>
+      <c r="C92" s="19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1299,4 +2475,34 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/changeCellsLink/result-202104/合并报表202104.xlsx
+++ b/changeCellsLink/result-202104/合并报表202104.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t xml:space="preserve"> 资产负债表</t>
   </si>
@@ -310,6 +310,18 @@
   <si>
     <t>长投检查</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>万达广西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>223 dg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1381,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1393,12 +1405,12 @@
     <col min="3" max="3" width="16.9296875" customWidth="1"/>
     <col min="4" max="4" width="15.265625" customWidth="1"/>
     <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="6" width="15.46484375" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" customWidth="1"/>
-    <col min="8" max="8" width="18.265625" customWidth="1"/>
+    <col min="6" max="7" width="15.46484375" customWidth="1"/>
+    <col min="8" max="9" width="14.86328125" customWidth="1"/>
+    <col min="10" max="10" width="18.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>31</v>
@@ -1415,14 +1427,18 @@
       <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -1438,13 +1454,19 @@
         <v>27</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -1461,14 +1483,16 @@
       <c r="F3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -1477,8 +1501,10 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
         <v>30</v>
@@ -1496,14 +1522,16 @@
       <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
+      <c r="G5" s="8"/>
       <c r="H5" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
         <v>74</v>
@@ -1520,14 +1548,16 @@
       <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
+      <c r="G6" s="8"/>
       <c r="H6" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
         <v>1</v>
@@ -1544,14 +1574,16 @@
       <c r="F7" s="8">
         <v>0</v>
       </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
         <v>2</v>
@@ -1568,14 +1600,16 @@
       <c r="F8" s="8">
         <v>300000000</v>
       </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
+      <c r="G8" s="8"/>
       <c r="H8" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
         <v>3</v>
@@ -1592,14 +1626,16 @@
       <c r="F9" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I9" s="8"/>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -1616,14 +1652,16 @@
       <c r="F10" s="8">
         <v>0</v>
       </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
+      <c r="G10" s="8"/>
       <c r="H10" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -1640,14 +1678,16 @@
       <c r="F11" s="8">
         <v>199836.22750000001</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
         <v>400000</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8"/>
+      <c r="J11" s="8">
         <v>7000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="7" t="s">
         <v>6</v>
@@ -1664,14 +1704,16 @@
       <c r="F12" s="8">
         <v>0</v>
       </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
+      <c r="G12" s="8"/>
       <c r="H12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="9" t="s">
         <v>7</v>
@@ -1689,14 +1731,16 @@
       <c r="F13" s="10">
         <v>3000000</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
         <v>2500000</v>
       </c>
-      <c r="H13" s="10">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10">
         <v>7000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -1705,8 +1749,10 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="7" t="s">
         <v>8</v>
@@ -1723,14 +1769,16 @@
       <c r="F15" s="8">
         <v>0</v>
       </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
+      <c r="G15" s="8"/>
       <c r="H15" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="7" t="s">
         <v>75</v>
@@ -1747,14 +1795,16 @@
       <c r="F16" s="8">
         <v>0</v>
       </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
+      <c r="G16" s="8"/>
       <c r="H16" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="7" t="s">
         <v>76</v>
@@ -1771,14 +1821,16 @@
       <c r="F17" s="8">
         <v>0</v>
       </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
+      <c r="G17" s="8"/>
       <c r="H17" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I17" s="8"/>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="7" t="s">
         <v>9</v>
@@ -1795,14 +1847,16 @@
       <c r="F18" s="8">
         <v>0</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="8"/>
+      <c r="H18" s="8">
         <v>738619.68</v>
       </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I18" s="8"/>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="7" t="s">
         <v>10</v>
@@ -1819,14 +1873,16 @@
       <c r="F19" s="8">
         <v>0</v>
       </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
+      <c r="G19" s="8"/>
       <c r="H19" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I19" s="8"/>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="7" t="s">
         <v>11</v>
@@ -1843,14 +1899,16 @@
       <c r="F20" s="8">
         <v>9300000</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="8"/>
+      <c r="H20" s="8">
         <v>3600000</v>
       </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I20" s="8"/>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
         <v>12</v>
@@ -1867,14 +1925,16 @@
       <c r="F21" s="8">
         <v>0</v>
       </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
+      <c r="G21" s="8"/>
       <c r="H21" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I21" s="8"/>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="7" t="s">
         <v>13</v>
@@ -1891,14 +1951,16 @@
       <c r="F22" s="8">
         <v>0</v>
       </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
+      <c r="G22" s="8"/>
       <c r="H22" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I22" s="8"/>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="7" t="s">
         <v>14</v>
@@ -1915,14 +1977,16 @@
       <c r="F23" s="8">
         <v>0</v>
       </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
+      <c r="G23" s="8"/>
       <c r="H23" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I23" s="8"/>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
         <v>15</v>
@@ -1939,14 +2003,16 @@
       <c r="F24" s="8">
         <v>60000</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="8"/>
+      <c r="H24" s="8">
         <v>25000000</v>
       </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I24" s="8"/>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="9" t="s">
         <v>16</v>
@@ -1964,14 +2030,16 @@
       <c r="F25" s="10">
         <v>9421822.6399999987</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
         <v>462000000</v>
       </c>
-      <c r="H25" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I25" s="10"/>
+      <c r="J25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="9" t="s">
         <v>17</v>
@@ -1989,17 +2057,19 @@
       <c r="F26" s="10">
         <v>3000000000</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="10"/>
+      <c r="H26" s="10">
         <v>30000000</v>
       </c>
-      <c r="H26" s="10">
+      <c r="I26" s="10"/>
+      <c r="J26" s="10">
         <v>700000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B28" s="7" t="s">
         <v>38</v>
       </c>
@@ -2007,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B29" s="7" t="s">
         <v>39</v>
       </c>
@@ -2015,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B30" s="7" t="s">
         <v>40</v>
       </c>
@@ -2023,7 +2093,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B31" s="9" t="s">
         <v>41</v>
       </c>
@@ -2032,7 +2102,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="s">
         <v>42</v>
       </c>
@@ -2160,7 +2230,7 @@
         <v>4270000</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="11" t="s">
         <v>56</v>
       </c>
@@ -2173,19 +2243,21 @@
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B50" s="7"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B51" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="7"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B53" s="7" t="s">
         <v>58</v>
       </c>
@@ -2193,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B54" s="7" t="s">
         <v>59</v>
       </c>
@@ -2201,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B55" s="7" t="s">
         <v>60</v>
       </c>
@@ -2209,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B56" s="9" t="s">
         <v>61</v>
       </c>
@@ -2218,10 +2290,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B58" s="7" t="s">
         <v>78</v>
       </c>
@@ -2229,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B59" s="7" t="s">
         <v>79</v>
       </c>
@@ -2237,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B60" s="7" t="s">
         <v>80</v>
       </c>
@@ -2245,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B61" s="7" t="s">
         <v>62</v>
       </c>
@@ -2253,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B62" s="7" t="s">
         <v>63</v>
       </c>
@@ -2261,7 +2333,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B63" s="7" t="s">
         <v>81</v>
       </c>
@@ -2269,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B64" s="9" t="s">
         <v>64</v>
       </c>
@@ -2461,19 +2533,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C2:H2">
+  <conditionalFormatting sqref="C2:J2">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H2">
+  <conditionalFormatting sqref="A2:J2">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H2">
+  <conditionalFormatting sqref="B2:J2">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:H1">
+  <conditionalFormatting sqref="C1:J1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
